--- a/data/trans_orig/P1432-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>25006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15906</v>
+        <v>16025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35655</v>
+        <v>35518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02423687085016479</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0154169702622046</v>
+        <v>0.01553242348016234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03455897349030941</v>
+        <v>0.03442577417848156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -764,19 +764,19 @@
         <v>42347</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30762</v>
+        <v>29308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57378</v>
+        <v>55640</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03220062100506816</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02339106724159771</v>
+        <v>0.02228533049482559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04362985063039787</v>
+        <v>0.04230786869652192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -785,19 +785,19 @@
         <v>67353</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51634</v>
+        <v>52384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84578</v>
+        <v>83596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02869957330714274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02200171598858679</v>
+        <v>0.0223212233178364</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03603905708527652</v>
+        <v>0.03562078533451839</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>1006717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>996068</v>
+        <v>996205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1015817</v>
+        <v>1015698</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9757631291498352</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9654410265096904</v>
+        <v>0.9655742258215186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9845830297377953</v>
+        <v>0.9844675765198377</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1251</v>
@@ -835,19 +835,19 @@
         <v>1272766</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1257735</v>
+        <v>1259473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1284351</v>
+        <v>1285805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9677993789949318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9563701493696021</v>
+        <v>0.9576921313034779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.976608932758402</v>
+        <v>0.9777146695051743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2263</v>
@@ -856,19 +856,19 @@
         <v>2279482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2262257</v>
+        <v>2263239</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2295201</v>
+        <v>2294451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9713004266928572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9639609429147235</v>
+        <v>0.9643792146654816</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9779982840114131</v>
+        <v>0.9776787766821635</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>6204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2615</v>
+        <v>2635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12235</v>
+        <v>12396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003663575725683065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001544043893695455</v>
+        <v>0.001556089648296113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007225204445578607</v>
+        <v>0.007320249790862982</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>8341</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3245</v>
+        <v>3321</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14912</v>
+        <v>16166</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005253696869508211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002043966044548779</v>
+        <v>0.002091482808663238</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009392207023841465</v>
+        <v>0.01018229447483731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1002,19 +1002,19 @@
         <v>14545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8655</v>
+        <v>8320</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23718</v>
+        <v>23033</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004433013890495402</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00263789896944954</v>
+        <v>0.002535611096548874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007228704661401761</v>
+        <v>0.007020083979671507</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1687209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1681178</v>
+        <v>1681017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1690798</v>
+        <v>1690778</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9963364242743169</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9927747955544214</v>
+        <v>0.992679750209137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984559561063046</v>
+        <v>0.9984439103517039</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1546</v>
@@ -1052,19 +1052,19 @@
         <v>1579332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1572761</v>
+        <v>1571507</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1584428</v>
+        <v>1584352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9947463031304918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9906077929761585</v>
+        <v>0.9898177055251627</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979560339554512</v>
+        <v>0.9979085171913368</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3188</v>
@@ -1073,19 +1073,19 @@
         <v>3266541</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3257368</v>
+        <v>3258053</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3272431</v>
+        <v>3272766</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9955669861095046</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9927712953385983</v>
+        <v>0.9929799160203285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9973621010305505</v>
+        <v>0.9974643889034511</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>4714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11897</v>
+        <v>11231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00854858794026056</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001890246476788127</v>
+        <v>0.001916373378222848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02157487991725607</v>
+        <v>0.02036761341559779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         <v>4714</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1047</v>
+        <v>1016</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12246</v>
+        <v>11533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004586173834303062</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001018627506728931</v>
+        <v>0.0009881433976480652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01191495391872935</v>
+        <v>0.01122047003656803</v>
       </c>
     </row>
     <row r="11">
@@ -1240,19 +1240,19 @@
         <v>546694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539511</v>
+        <v>540177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>550366</v>
+        <v>550351</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9914514120597394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9784251200827438</v>
+        <v>0.9796323865844022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981097535232119</v>
+        <v>0.9980836266217772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>452</v>
@@ -1274,19 +1274,19 @@
         <v>1023106</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015574</v>
+        <v>1016287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1026773</v>
+        <v>1026804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.995413826165697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9880850460812707</v>
+        <v>0.988779529963432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989813724932711</v>
+        <v>0.9990118566023519</v>
       </c>
     </row>
     <row r="12">
@@ -1378,19 +1378,19 @@
         <v>35923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01096382187600987</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1399,19 +1399,19 @@
         <v>50689</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01500018835515685</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1420,19 +1420,19 @@
         <v>86612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01301313231358784</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>3240620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3227408</v>
+        <v>3227808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3250654</v>
+        <v>3251055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9890361781239901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9850039895473557</v>
+        <v>0.9851262435512269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9920987255980203</v>
+        <v>0.992221141413739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3249</v>
@@ -1470,19 +1470,19 @@
         <v>3328508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3312884</v>
+        <v>3311477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3340823</v>
+        <v>3341836</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9849998116448432</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9803760524758519</v>
+        <v>0.9799597468138548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9886441804828746</v>
+        <v>0.9889437919654746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6426</v>
@@ -1491,19 +1491,19 @@
         <v>6569129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6551258</v>
+        <v>6548734</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6587875</v>
+        <v>6587258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9869868676864122</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9843017520943528</v>
+        <v>0.9839226317437689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9898033277453883</v>
+        <v>0.9897107114930551</v>
       </c>
     </row>
     <row r="15">
@@ -1834,19 +1834,19 @@
         <v>14052</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7891</v>
+        <v>7202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23790</v>
+        <v>24155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01441723958607894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008096045596219022</v>
+        <v>0.007388916658314854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02440926587705129</v>
+        <v>0.02478340557090107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -1855,19 +1855,19 @@
         <v>48467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36262</v>
+        <v>35398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64258</v>
+        <v>64375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03625932903995623</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02712796482999582</v>
+        <v>0.02648203749855367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04807239847917574</v>
+        <v>0.04815997109405278</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -1876,19 +1876,19 @@
         <v>62519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45581</v>
+        <v>47029</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79330</v>
+        <v>80039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02704894759031748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01972064808740129</v>
+        <v>0.02034718093791336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03432228756158467</v>
+        <v>0.03462907914517246</v>
       </c>
     </row>
     <row r="5">
@@ -1905,19 +1905,19 @@
         <v>960591</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>950853</v>
+        <v>950488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>966752</v>
+        <v>967441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.985582760413921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9755907341229485</v>
+        <v>0.975216594429099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9919039544037809</v>
+        <v>0.9926110833416851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1202</v>
@@ -1926,19 +1926,19 @@
         <v>1288221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1272430</v>
+        <v>1272313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1300426</v>
+        <v>1301290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9637406709600438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9519276015208242</v>
+        <v>0.9518400289059472</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9728720351700043</v>
+        <v>0.9735179625014465</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2097</v>
@@ -1947,19 +1947,19 @@
         <v>2248812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2232001</v>
+        <v>2231292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2265750</v>
+        <v>2264302</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9729510524096825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9656777124384153</v>
+        <v>0.9653709208548272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9802793519125986</v>
+        <v>0.9796528190620865</v>
       </c>
     </row>
     <row r="6">
@@ -2051,19 +2051,19 @@
         <v>8606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3352</v>
+        <v>4121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19324</v>
+        <v>18971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004381726306974921</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001706987936645208</v>
+        <v>0.002098287911712688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009839485088335431</v>
+        <v>0.009659758115265076</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2072,19 +2072,19 @@
         <v>6286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2734</v>
+        <v>2132</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13706</v>
+        <v>13935</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003582549276348204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001558418965847486</v>
+        <v>0.001215352620410254</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007811297465034753</v>
+        <v>0.007941752174631368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2093,19 +2093,19 @@
         <v>14891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8141</v>
+        <v>8259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24950</v>
+        <v>25162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004004635813809778</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002189229859544989</v>
+        <v>0.002220937747202737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006709589877217407</v>
+        <v>0.006766541070953639</v>
       </c>
     </row>
     <row r="8">
@@ -2122,19 +2122,19 @@
         <v>1955351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1944633</v>
+        <v>1944986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1960605</v>
+        <v>1959836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.995618273693025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9901605149116646</v>
+        <v>0.9903402418847349</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9982930120633547</v>
+        <v>0.9979017120882873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1627</v>
@@ -2143,19 +2143,19 @@
         <v>1748306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1740886</v>
+        <v>1740657</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1751858</v>
+        <v>1752460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9964174507236518</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9921887025349652</v>
+        <v>0.9920582478253686</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984415810341525</v>
+        <v>0.9987846473795897</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3476</v>
@@ -2164,19 +2164,19 @@
         <v>3703658</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3693599</v>
+        <v>3693387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3710408</v>
+        <v>3710290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9959953641861902</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9932904101227826</v>
+        <v>0.9932334589290466</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9978107701404551</v>
+        <v>0.9977790622527973</v>
       </c>
     </row>
     <row r="9">
@@ -2281,19 +2281,19 @@
         <v>3138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>972</v>
+        <v>983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8443</v>
+        <v>9332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006842524771818384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002118481917471251</v>
+        <v>0.002143882913028063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01840883483260342</v>
+        <v>0.02034715655829894</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2302,19 +2302,19 @@
         <v>3138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8557</v>
+        <v>8239</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003339170838620389</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001039054662196179</v>
+        <v>0.001035242588192035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009105160621685966</v>
+        <v>0.008766997700382995</v>
       </c>
     </row>
     <row r="11">
@@ -2344,19 +2344,19 @@
         <v>455493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>450188</v>
+        <v>449299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>457659</v>
+        <v>457648</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9931574752281817</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9815911651673965</v>
+        <v>0.979652843441701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9978815180825287</v>
+        <v>0.997856117086972</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>847</v>
@@ -2365,19 +2365,19 @@
         <v>936675</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>931256</v>
+        <v>931574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>938836</v>
+        <v>938840</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9966608291613797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.990894839378314</v>
+        <v>0.991233002299617</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9989609453378038</v>
+        <v>0.998964757411808</v>
       </c>
     </row>
     <row r="12">
@@ -2469,19 +2469,19 @@
         <v>22657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13216</v>
+        <v>13860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35932</v>
+        <v>34853</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006625330679565868</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003864542085228047</v>
+        <v>0.004052835726284327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01050697258162194</v>
+        <v>0.01019154233681208</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -2490,19 +2490,19 @@
         <v>57892</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45092</v>
+        <v>43743</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74724</v>
+        <v>75703</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01630787768747053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01270221210461273</v>
+        <v>0.01232230280412655</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02104961183632966</v>
+        <v>0.02132539934417461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -2511,19 +2511,19 @@
         <v>80549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63562</v>
+        <v>64267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99658</v>
+        <v>101246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01155699425426752</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009119821514199752</v>
+        <v>0.00922085717281243</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01429881840969501</v>
+        <v>0.01452662183489178</v>
       </c>
     </row>
     <row r="14">
@@ -2540,19 +2540,19 @@
         <v>3397125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3383850</v>
+        <v>3384929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3406566</v>
+        <v>3405922</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9933746693204342</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9894930274183782</v>
+        <v>0.989808457663188</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9961354579147721</v>
+        <v>0.9959471642737158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3238</v>
@@ -2561,19 +2561,19 @@
         <v>3492019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3475187</v>
+        <v>3474208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3504819</v>
+        <v>3506168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9836921223125294</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9789503881636702</v>
+        <v>0.978674600655826</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9872977878953871</v>
+        <v>0.9876776971958737</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6420</v>
@@ -2582,19 +2582,19 @@
         <v>6889144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6870035</v>
+        <v>6868447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6906131</v>
+        <v>6905426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884430057457325</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9857011815903052</v>
+        <v>0.9854733781651083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9908801784858005</v>
+        <v>0.9907791428271876</v>
       </c>
     </row>
     <row r="15">
@@ -2925,19 +2925,19 @@
         <v>11972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6626</v>
+        <v>6348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20379</v>
+        <v>19620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01587074918037453</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008783214019798329</v>
+        <v>0.008414767803617364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02701513493183783</v>
+        <v>0.02600908282554091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2946,19 +2946,19 @@
         <v>33597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22984</v>
+        <v>23139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48370</v>
+        <v>48419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0337773021908014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02310736605652884</v>
+        <v>0.02326358493336018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04862957026935601</v>
+        <v>0.04867860327072623</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2967,19 +2967,19 @@
         <v>45569</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32820</v>
+        <v>33211</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61621</v>
+        <v>62295</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02605420505810764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01876518141438751</v>
+        <v>0.01898874453170362</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03523192768960353</v>
+        <v>0.03561747432373626</v>
       </c>
     </row>
     <row r="5">
@@ -2996,19 +2996,19 @@
         <v>742375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>733968</v>
+        <v>734727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>747721</v>
+        <v>747999</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9841292508196254</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9729848650681623</v>
+        <v>0.9739909171744592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912167859802017</v>
+        <v>0.9915852321963826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>864</v>
@@ -3017,19 +3017,19 @@
         <v>961063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>946290</v>
+        <v>946241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>971676</v>
+        <v>971521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9662226978091986</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.951370429730644</v>
+        <v>0.9513213967292738</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9768926339434711</v>
+        <v>0.9767364150666398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1613</v>
@@ -3038,19 +3038,19 @@
         <v>1703438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1687386</v>
+        <v>1686712</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1716187</v>
+        <v>1715796</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9739457949418924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9647680723103966</v>
+        <v>0.9643825256762638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9812348185856126</v>
+        <v>0.9810112554682965</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>4646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10390</v>
+        <v>10001</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002237633102150136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008114839988998755</v>
+        <v>0.0008134145034483719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.005003900565272435</v>
+        <v>0.004816628718635544</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3163,19 +3163,19 @@
         <v>15372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8863</v>
+        <v>9472</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25713</v>
+        <v>26250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007731168333710232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004457625626391886</v>
+        <v>0.004763885473597638</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01293215853706294</v>
+        <v>0.01320231685982397</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3184,19 +3184,19 @@
         <v>20018</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11590</v>
+        <v>12568</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31241</v>
+        <v>30921</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004924876117413905</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002851493363253948</v>
+        <v>0.003092090551275866</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007686031521193502</v>
+        <v>0.007607335915881677</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>2071739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2065995</v>
+        <v>2066384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2074700</v>
+        <v>2074696</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9977623668978499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9949960994347272</v>
+        <v>0.995183371281364</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9991885160011</v>
+        <v>0.9991865854965516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1894</v>
@@ -3234,19 +3234,19 @@
         <v>1972928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1962587</v>
+        <v>1962050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1979437</v>
+        <v>1978828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9922688316662898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.987067841462937</v>
+        <v>0.986797683140176</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.995542374373608</v>
+        <v>0.9952361145264024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3841</v>
@@ -3255,19 +3255,19 @@
         <v>4044667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4033444</v>
+        <v>4033764</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4053095</v>
+        <v>4052117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950751238825861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9923139684788066</v>
+        <v>0.9923926640841184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971485066367461</v>
+        <v>0.9969079094487242</v>
       </c>
     </row>
     <row r="9">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4283</v>
+        <v>4553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001641621331341503</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007831310733963886</v>
+        <v>0.008325116841340109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8082</v>
+        <v>8642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004189685557885145</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01471672356179392</v>
+        <v>0.01573647570952263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3401,19 +3401,19 @@
         <v>3199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9668</v>
+        <v>8780</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002918273682948128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0008213403786820978</v>
+        <v>0.0008197916298164257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008820576681922394</v>
+        <v>0.008010389197408185</v>
       </c>
     </row>
     <row r="11">
@@ -3430,7 +3430,7 @@
         <v>545988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>542603</v>
+        <v>542333</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3439,7 +3439,7 @@
         <v>0.9983583786686585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9921686892660356</v>
+        <v>0.9916748831586599</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>546839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>541058</v>
+        <v>540498</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>549140</v>
@@ -3460,7 +3460,7 @@
         <v>0.9958103144421149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.985283276438206</v>
+        <v>0.9842635242904781</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3472,19 +3472,19 @@
         <v>1092828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1086359</v>
+        <v>1087247</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1095127</v>
+        <v>1095128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9970817263170518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9911794233180776</v>
+        <v>0.9919896108025922</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9991786596213179</v>
+        <v>0.9991802083701835</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>17516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10978</v>
+        <v>10692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27245</v>
+        <v>27465</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00518590816771237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003250336092448396</v>
+        <v>0.003165502112976191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008066277579189212</v>
+        <v>0.008131334622205425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -3597,19 +3597,19 @@
         <v>51270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36930</v>
+        <v>38044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67100</v>
+        <v>69817</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01451531298880749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01045560218811088</v>
+        <v>0.0107710070360756</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01899714579775035</v>
+        <v>0.01976653999688428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -3618,19 +3618,19 @@
         <v>68786</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52737</v>
+        <v>54293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88833</v>
+        <v>87540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009954900726085033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007632343689180652</v>
+        <v>0.007857442150614952</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01285622357249904</v>
+        <v>0.01266917560562056</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>3360102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3350373</v>
+        <v>3350153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3366640</v>
+        <v>3366926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9948140918322876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9919337224208108</v>
+        <v>0.9918686653777946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967496639075516</v>
+        <v>0.9968344978870238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3282</v>
@@ -3668,19 +3668,19 @@
         <v>3480830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3465000</v>
+        <v>3462283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3495170</v>
+        <v>3494056</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9854846870111925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9810028542022496</v>
+        <v>0.9802334600031157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9895443978118891</v>
+        <v>0.9892289929639244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6478</v>
@@ -3689,19 +3689,19 @@
         <v>6840932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6820885</v>
+        <v>6822178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6856981</v>
+        <v>6855425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9900450992739149</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9871437764275013</v>
+        <v>0.9873308243943795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.99236765631082</v>
+        <v>0.9921425578493851</v>
       </c>
     </row>
     <row r="15">
